--- a/rhla_analysis/rhla1_6_exp_result/k8.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/k8.xlsx
@@ -457,142 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.008010297095094836</v>
+        <v>0.007225011548197197</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3887963478007107</v>
+        <v>0.3900168028008226</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2242114236999148</v>
+        <v>0.1710794297352342</v>
       </c>
       <c r="D2" t="n">
-        <v>48.53706962239802</v>
+        <v>53.98147811931741</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.002437814241404602</v>
+        <v>0.002596868717895119</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3016065457974075</v>
+        <v>0.3013001472673184</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2408354646206309</v>
+        <v>0.1890699253224712</v>
       </c>
       <c r="D3" t="n">
-        <v>123.7200688530025</v>
+        <v>116.0244047729667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.004477023354538118</v>
+        <v>0.003912373170946884</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3016647027661747</v>
+        <v>0.2986468940555304</v>
       </c>
       <c r="C4" t="n">
-        <v>0.242540494458653</v>
+        <v>0.1877121520706042</v>
       </c>
       <c r="D4" t="n">
-        <v>67.38064085825985</v>
+        <v>76.3339489886265</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.003581659210483865</v>
+        <v>0.002928638221241877</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3462428050077379</v>
+        <v>0.3436971688984689</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2468030690537084</v>
+        <v>0.1856754921928038</v>
       </c>
       <c r="D5" t="n">
-        <v>96.67106350996529</v>
+        <v>117.3573322937531</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.00368980762733198</v>
+        <v>0.002400876450705922</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3575443579717152</v>
+        <v>0.3595499844766774</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2485080988917306</v>
+        <v>0.1941615750169722</v>
       </c>
       <c r="D6" t="n">
-        <v>96.90054173101912</v>
+        <v>149.7578038099211</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.00621423869841828</v>
+        <v>0.004912871377492066</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3465719021521034</v>
+        <v>0.3449039265078857</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2306052855924979</v>
+        <v>0.1775288526816022</v>
       </c>
       <c r="D7" t="n">
-        <v>55.77061309864342</v>
+        <v>70.20414336268519</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.00199706627067627</v>
+        <v>0.002531278936040251</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3036596816826993</v>
+        <v>0.3015538003256142</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2399829497016198</v>
+        <v>0.1894093686354379</v>
       </c>
       <c r="D8" t="n">
-        <v>152.0528818404561</v>
+        <v>119.1310037120378</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.00177771927169908</v>
+        <v>0.002038846369098389</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3070979193687992</v>
+        <v>0.3067703587147376</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2318840579710145</v>
+        <v>0.1805838424983028</v>
       </c>
       <c r="D9" t="n">
-        <v>172.7482647332085</v>
+        <v>150.4627142899425</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.003103441905355382</v>
+        <v>0.002856701714411367</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3878841743056182</v>
+        <v>0.3887280870453849</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2404092071611253</v>
+        <v>0.1914460285132383</v>
       </c>
       <c r="D10" t="n">
-        <v>124.9851571689726</v>
+        <v>136.0758405696843</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.004508169303377231</v>
+        <v>0.003485155987433007</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2854709534944718</v>
+        <v>0.2880552427836668</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2344416027280477</v>
+        <v>0.1832993890020367</v>
       </c>
       <c r="D11" t="n">
-        <v>63.32303298383567</v>
+        <v>82.65203733272038</v>
       </c>
     </row>
   </sheetData>

--- a/rhla_analysis/rhla1_6_exp_result/k8.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/k8.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.007225011548197197</v>
+        <v>0.007225011548197231</v>
       </c>
       <c r="B2" t="n">
         <v>0.3900168028008226</v>
@@ -466,12 +466,12 @@
         <v>0.1710794297352342</v>
       </c>
       <c r="D2" t="n">
-        <v>53.98147811931741</v>
+        <v>53.98147811931715</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.002596868717895119</v>
+        <v>0.002596868717895111</v>
       </c>
       <c r="B3" t="n">
         <v>0.3013001472673184</v>
@@ -480,12 +480,12 @@
         <v>0.1890699253224712</v>
       </c>
       <c r="D3" t="n">
-        <v>116.0244047729667</v>
+        <v>116.024404772967</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.003912373170946884</v>
+        <v>0.003912373170946871</v>
       </c>
       <c r="B4" t="n">
         <v>0.2986468940555304</v>
@@ -494,12 +494,12 @@
         <v>0.1877121520706042</v>
       </c>
       <c r="D4" t="n">
-        <v>76.3339489886265</v>
+        <v>76.33394898862676</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.002928638221241877</v>
+        <v>0.002928638221241887</v>
       </c>
       <c r="B5" t="n">
         <v>0.3436971688984689</v>
@@ -508,12 +508,12 @@
         <v>0.1856754921928038</v>
       </c>
       <c r="D5" t="n">
-        <v>117.3573322937531</v>
+        <v>117.3573322937527</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.002400876450705922</v>
+        <v>0.002400876450705921</v>
       </c>
       <c r="B6" t="n">
         <v>0.3595499844766774</v>
@@ -522,21 +522,21 @@
         <v>0.1941615750169722</v>
       </c>
       <c r="D6" t="n">
-        <v>149.7578038099211</v>
+        <v>149.7578038099212</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.004912871377492066</v>
+        <v>0.004912871377492044</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3449039265078857</v>
+        <v>0.3449039265078858</v>
       </c>
       <c r="C7" t="n">
         <v>0.1775288526816022</v>
       </c>
       <c r="D7" t="n">
-        <v>70.20414336268519</v>
+        <v>70.20414336268553</v>
       </c>
     </row>
     <row r="8">
@@ -564,12 +564,12 @@
         <v>0.1805838424983028</v>
       </c>
       <c r="D9" t="n">
-        <v>150.4627142899425</v>
+        <v>150.4627142899426</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.002856701714411367</v>
+        <v>0.00285670171441138</v>
       </c>
       <c r="B10" t="n">
         <v>0.3887280870453849</v>
@@ -578,12 +578,12 @@
         <v>0.1914460285132383</v>
       </c>
       <c r="D10" t="n">
-        <v>136.0758405696843</v>
+        <v>136.0758405696836</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.003485155987433007</v>
+        <v>0.003485155987432979</v>
       </c>
       <c r="B11" t="n">
         <v>0.2880552427836668</v>
@@ -592,7 +592,7 @@
         <v>0.1832993890020367</v>
       </c>
       <c r="D11" t="n">
-        <v>82.65203733272038</v>
+        <v>82.65203733272104</v>
       </c>
     </row>
   </sheetData>
